--- a/data/pca/factorExposure/factorExposure_2012-05-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-15.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01782659153566434</v>
+        <v>0.02097152758905136</v>
       </c>
       <c r="C2">
-        <v>-0.03561099116261143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02801084513823981</v>
+      </c>
+      <c r="D2">
+        <v>0.006324772727163362</v>
+      </c>
+      <c r="E2">
+        <v>0.02641587837606444</v>
+      </c>
+      <c r="F2">
+        <v>-0.01275309409240564</v>
+      </c>
+      <c r="G2">
+        <v>0.01188142557512904</v>
+      </c>
+      <c r="H2">
+        <v>0.04452253407905905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07096106008671846</v>
+        <v>0.08058303656598732</v>
       </c>
       <c r="C4">
-        <v>-0.06013536022887699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04042620481664255</v>
+      </c>
+      <c r="D4">
+        <v>-0.07273622745185106</v>
+      </c>
+      <c r="E4">
+        <v>-0.0003003670226062894</v>
+      </c>
+      <c r="F4">
+        <v>-0.03355460116219837</v>
+      </c>
+      <c r="G4">
+        <v>-0.004356597356138484</v>
+      </c>
+      <c r="H4">
+        <v>-0.03313245964790237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1008805715713123</v>
+        <v>0.1170294552398926</v>
       </c>
       <c r="C6">
-        <v>-0.06453914473063532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04133388298804541</v>
+      </c>
+      <c r="D6">
+        <v>-0.01161958891197989</v>
+      </c>
+      <c r="E6">
+        <v>-0.002145407940445975</v>
+      </c>
+      <c r="F6">
+        <v>-0.05863714440745572</v>
+      </c>
+      <c r="G6">
+        <v>0.01690351941760251</v>
+      </c>
+      <c r="H6">
+        <v>0.07275757992543941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04942061653510419</v>
+        <v>0.05984114297825153</v>
       </c>
       <c r="C7">
-        <v>-0.03220686988343825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02201260285576178</v>
+      </c>
+      <c r="D7">
+        <v>-0.03994268568853685</v>
+      </c>
+      <c r="E7">
+        <v>0.02292427046511457</v>
+      </c>
+      <c r="F7">
+        <v>-0.03396505388601327</v>
+      </c>
+      <c r="G7">
+        <v>-0.04261799760296006</v>
+      </c>
+      <c r="H7">
+        <v>-0.02470007524254637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0347229035768608</v>
+        <v>0.03938055304915282</v>
       </c>
       <c r="C8">
-        <v>-0.02167832804080247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0129563359367332</v>
+      </c>
+      <c r="D8">
+        <v>-0.04102126981138422</v>
+      </c>
+      <c r="E8">
+        <v>0.006245232615897221</v>
+      </c>
+      <c r="F8">
+        <v>-0.04839581041785798</v>
+      </c>
+      <c r="G8">
+        <v>0.02269854351042178</v>
+      </c>
+      <c r="H8">
+        <v>0.02866878074757463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06544001790381038</v>
+        <v>0.07470693396684375</v>
       </c>
       <c r="C9">
-        <v>-0.04624755638841465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02814224361658743</v>
+      </c>
+      <c r="D9">
+        <v>-0.06750031407612077</v>
+      </c>
+      <c r="E9">
+        <v>0.02031381577613098</v>
+      </c>
+      <c r="F9">
+        <v>-0.0413238564552228</v>
+      </c>
+      <c r="G9">
+        <v>-0.001255531316249254</v>
+      </c>
+      <c r="H9">
+        <v>-0.05426199977726087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03304223179737013</v>
+        <v>0.04022388701356383</v>
       </c>
       <c r="C10">
-        <v>-0.03203271159589792</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03184575361937855</v>
+      </c>
+      <c r="D10">
+        <v>0.1786281425432251</v>
+      </c>
+      <c r="E10">
+        <v>0.04885282438015471</v>
+      </c>
+      <c r="F10">
+        <v>-0.03946196205228979</v>
+      </c>
+      <c r="G10">
+        <v>-0.0371879087914938</v>
+      </c>
+      <c r="H10">
+        <v>0.03078057737877614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06751675722574167</v>
+        <v>0.07602840989611864</v>
       </c>
       <c r="C11">
-        <v>-0.05183681157072162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0322875074301331</v>
+      </c>
+      <c r="D11">
+        <v>-0.06467973440275995</v>
+      </c>
+      <c r="E11">
+        <v>-0.009344923992767535</v>
+      </c>
+      <c r="F11">
+        <v>-0.02863658617256154</v>
+      </c>
+      <c r="G11">
+        <v>-0.01322502838229503</v>
+      </c>
+      <c r="H11">
+        <v>-0.09159032106389843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05391994246922671</v>
+        <v>0.06544726687900092</v>
       </c>
       <c r="C12">
-        <v>-0.05280429335090685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03805388495428549</v>
+      </c>
+      <c r="D12">
+        <v>-0.04946974071832191</v>
+      </c>
+      <c r="E12">
+        <v>0.009617951701793307</v>
+      </c>
+      <c r="F12">
+        <v>-0.02445348230483532</v>
+      </c>
+      <c r="G12">
+        <v>-0.006680684437721801</v>
+      </c>
+      <c r="H12">
+        <v>-0.05234623879243567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05919009246454148</v>
+        <v>0.06311755511534037</v>
       </c>
       <c r="C13">
-        <v>-0.04755850291853881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02802495798188818</v>
+      </c>
+      <c r="D13">
+        <v>-0.03969328287737306</v>
+      </c>
+      <c r="E13">
+        <v>-0.0006790591054057293</v>
+      </c>
+      <c r="F13">
+        <v>-0.002204277564926996</v>
+      </c>
+      <c r="G13">
+        <v>-0.006505231204338892</v>
+      </c>
+      <c r="H13">
+        <v>-0.05691184671202398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03179063881698777</v>
+        <v>0.04109589497734996</v>
       </c>
       <c r="C14">
-        <v>-0.03167943249355763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02513018798136295</v>
+      </c>
+      <c r="D14">
+        <v>-0.007076907386566553</v>
+      </c>
+      <c r="E14">
+        <v>0.02171069519807528</v>
+      </c>
+      <c r="F14">
+        <v>-0.01730486315818412</v>
+      </c>
+      <c r="G14">
+        <v>0.007136675485634073</v>
+      </c>
+      <c r="H14">
+        <v>-0.05883294698966875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03922667106201311</v>
+        <v>0.0394827533790138</v>
       </c>
       <c r="C15">
-        <v>-0.01106247783993375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.001705218801743052</v>
+      </c>
+      <c r="D15">
+        <v>-0.006903620090110856</v>
+      </c>
+      <c r="E15">
+        <v>0.0402826068911078</v>
+      </c>
+      <c r="F15">
+        <v>-2.644932926224325e-06</v>
+      </c>
+      <c r="G15">
+        <v>0.02229186938311776</v>
+      </c>
+      <c r="H15">
+        <v>-0.05400187037873837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05666822216586223</v>
+        <v>0.06441915828334301</v>
       </c>
       <c r="C16">
-        <v>-0.04494345971168846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02948172121427107</v>
+      </c>
+      <c r="D16">
+        <v>-0.06054189466164846</v>
+      </c>
+      <c r="E16">
+        <v>0.0002529406202568984</v>
+      </c>
+      <c r="F16">
+        <v>-0.02441164172201018</v>
+      </c>
+      <c r="G16">
+        <v>-0.006250503154484654</v>
+      </c>
+      <c r="H16">
+        <v>-0.05604502901166638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06137223645157901</v>
+        <v>0.06228411031107382</v>
       </c>
       <c r="C20">
-        <v>-0.03896120898349772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01866970072027935</v>
+      </c>
+      <c r="D20">
+        <v>-0.0523156879808574</v>
+      </c>
+      <c r="E20">
+        <v>0.01764759626530285</v>
+      </c>
+      <c r="F20">
+        <v>-0.02685698059529121</v>
+      </c>
+      <c r="G20">
+        <v>-0.00376146641275324</v>
+      </c>
+      <c r="H20">
+        <v>-0.05083094660535505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02502694498708127</v>
+        <v>0.02567360341627868</v>
       </c>
       <c r="C21">
-        <v>-0.002246355178463299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.005623109176963282</v>
+      </c>
+      <c r="D21">
+        <v>-0.03469913062385258</v>
+      </c>
+      <c r="E21">
+        <v>0.07608668582504685</v>
+      </c>
+      <c r="F21">
+        <v>0.01416847424085676</v>
+      </c>
+      <c r="G21">
+        <v>0.009461705731796406</v>
+      </c>
+      <c r="H21">
+        <v>0.02207928179199889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06899483644948388</v>
+        <v>0.06255733221236075</v>
       </c>
       <c r="C22">
-        <v>-0.06735822377282677</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03966822991237334</v>
+      </c>
+      <c r="D22">
+        <v>-0.09922841579163223</v>
+      </c>
+      <c r="E22">
+        <v>0.610775090496731</v>
+      </c>
+      <c r="F22">
+        <v>0.14024383306589</v>
+      </c>
+      <c r="G22">
+        <v>-0.01472984771840623</v>
+      </c>
+      <c r="H22">
+        <v>0.1324797224276502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0699853317735346</v>
+        <v>0.06303233753415513</v>
       </c>
       <c r="C23">
-        <v>-0.06652965990381303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03850897809186724</v>
+      </c>
+      <c r="D23">
+        <v>-0.1000783886055698</v>
+      </c>
+      <c r="E23">
+        <v>0.609825897418998</v>
+      </c>
+      <c r="F23">
+        <v>0.139597514361872</v>
+      </c>
+      <c r="G23">
+        <v>-0.01343268807755884</v>
+      </c>
+      <c r="H23">
+        <v>0.1278307863683034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06607277362217223</v>
+        <v>0.075603006779824</v>
       </c>
       <c r="C24">
-        <v>-0.05362338186079984</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03456042658477452</v>
+      </c>
+      <c r="D24">
+        <v>-0.06174395596401274</v>
+      </c>
+      <c r="E24">
+        <v>0.008858413973371889</v>
+      </c>
+      <c r="F24">
+        <v>-0.03679474593059207</v>
+      </c>
+      <c r="G24">
+        <v>0.0006361979651783544</v>
+      </c>
+      <c r="H24">
+        <v>-0.06428141598451118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06609764034176438</v>
+        <v>0.0741857739305091</v>
       </c>
       <c r="C25">
-        <v>-0.05953642342148174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03953551299092579</v>
+      </c>
+      <c r="D25">
+        <v>-0.05822126003065995</v>
+      </c>
+      <c r="E25">
+        <v>0.01231530040866227</v>
+      </c>
+      <c r="F25">
+        <v>-0.03182794168492955</v>
+      </c>
+      <c r="G25">
+        <v>0.01144559157073729</v>
+      </c>
+      <c r="H25">
+        <v>-0.07179390777541167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0402017748757094</v>
+        <v>0.04435093137948977</v>
       </c>
       <c r="C26">
-        <v>-0.01227513014159908</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.003864094453546179</v>
+      </c>
+      <c r="D26">
+        <v>-0.02913026309111712</v>
+      </c>
+      <c r="E26">
+        <v>0.03776154040432304</v>
+      </c>
+      <c r="F26">
+        <v>-0.02356916649334609</v>
+      </c>
+      <c r="G26">
+        <v>-0.009955954758454505</v>
+      </c>
+      <c r="H26">
+        <v>-0.06317723331862708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06007728399160662</v>
+        <v>0.07647902106827843</v>
       </c>
       <c r="C28">
-        <v>-0.07040494222956066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.06763228861125534</v>
+      </c>
+      <c r="D28">
+        <v>0.3162182253240388</v>
+      </c>
+      <c r="E28">
+        <v>0.03728619384087764</v>
+      </c>
+      <c r="F28">
+        <v>-0.05602215594382515</v>
+      </c>
+      <c r="G28">
+        <v>0.0281378521495913</v>
+      </c>
+      <c r="H28">
+        <v>-0.001234292476831671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03847240550316584</v>
+        <v>0.04623598813777634</v>
       </c>
       <c r="C29">
-        <v>-0.03094932667316765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02311530391807692</v>
+      </c>
+      <c r="D29">
+        <v>-0.01045232889359022</v>
+      </c>
+      <c r="E29">
+        <v>0.04267331439409312</v>
+      </c>
+      <c r="F29">
+        <v>-0.008784034449301667</v>
+      </c>
+      <c r="G29">
+        <v>-0.01092498766936666</v>
+      </c>
+      <c r="H29">
+        <v>-0.0892572165692149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1166134394044053</v>
+        <v>0.1306796784658988</v>
       </c>
       <c r="C30">
-        <v>-0.09935941705579222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06420509367764739</v>
+      </c>
+      <c r="D30">
+        <v>-0.09201508774466539</v>
+      </c>
+      <c r="E30">
+        <v>0.04260775490228449</v>
+      </c>
+      <c r="F30">
+        <v>-0.009097080129637178</v>
+      </c>
+      <c r="G30">
+        <v>0.03004079100144231</v>
+      </c>
+      <c r="H30">
+        <v>0.0321841402098078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03932354088146622</v>
+        <v>0.04500533420365303</v>
       </c>
       <c r="C31">
-        <v>-0.02167040435892636</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01198016186533405</v>
+      </c>
+      <c r="D31">
+        <v>-0.0256409393736587</v>
+      </c>
+      <c r="E31">
+        <v>0.02400590245112565</v>
+      </c>
+      <c r="F31">
+        <v>-0.01332069944162589</v>
+      </c>
+      <c r="G31">
+        <v>-0.02134550243464621</v>
+      </c>
+      <c r="H31">
+        <v>-0.0726234231901754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03563618486628489</v>
+        <v>0.03418874812810109</v>
       </c>
       <c r="C32">
-        <v>-0.02427576695287737</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01339386527375612</v>
+      </c>
+      <c r="D32">
+        <v>-0.01302672858771494</v>
+      </c>
+      <c r="E32">
+        <v>0.06905560510337636</v>
+      </c>
+      <c r="F32">
+        <v>0.001081660471224842</v>
+      </c>
+      <c r="G32">
+        <v>0.03447394469697342</v>
+      </c>
+      <c r="H32">
+        <v>-0.0585080715878032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07502821388367072</v>
+        <v>0.09199378928237185</v>
       </c>
       <c r="C33">
-        <v>-0.04669491146292214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03002828822784371</v>
+      </c>
+      <c r="D33">
+        <v>-0.05934762335755994</v>
+      </c>
+      <c r="E33">
+        <v>0.01599118005382116</v>
+      </c>
+      <c r="F33">
+        <v>-0.01047303076558669</v>
+      </c>
+      <c r="G33">
+        <v>-0.01651811418234165</v>
+      </c>
+      <c r="H33">
+        <v>-0.06530053116753951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05266863545769362</v>
+        <v>0.0586497978585235</v>
       </c>
       <c r="C34">
-        <v>-0.03338608173465592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.0176574102819221</v>
+      </c>
+      <c r="D34">
+        <v>-0.05845912164981089</v>
+      </c>
+      <c r="E34">
+        <v>0.003068808617702691</v>
+      </c>
+      <c r="F34">
+        <v>-0.02131801840329407</v>
+      </c>
+      <c r="G34">
+        <v>0.002015903931189443</v>
+      </c>
+      <c r="H34">
+        <v>-0.04970836259313321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03602122313716644</v>
+        <v>0.04022194822684253</v>
       </c>
       <c r="C35">
-        <v>-0.01289705205665408</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005377772109088385</v>
+      </c>
+      <c r="D35">
+        <v>-0.01238901028698738</v>
+      </c>
+      <c r="E35">
+        <v>0.02100203659940424</v>
+      </c>
+      <c r="F35">
+        <v>0.006574235555825791</v>
+      </c>
+      <c r="G35">
+        <v>-0.01242523334364047</v>
+      </c>
+      <c r="H35">
+        <v>-0.03658301032628876</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01838275940292981</v>
+        <v>0.024245766613798</v>
       </c>
       <c r="C36">
-        <v>-0.01541759112851955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0114506859399472</v>
+      </c>
+      <c r="D36">
+        <v>-0.0180262026149638</v>
+      </c>
+      <c r="E36">
+        <v>0.0388992240266523</v>
+      </c>
+      <c r="F36">
+        <v>-0.01822836862175367</v>
+      </c>
+      <c r="G36">
+        <v>-0.01503117352028342</v>
+      </c>
+      <c r="H36">
+        <v>-0.05566695153276106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03767052400191424</v>
+        <v>0.04205508331192332</v>
       </c>
       <c r="C38">
-        <v>-0.006215179894817562</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0003690039212418454</v>
+      </c>
+      <c r="D38">
+        <v>-0.02217836717733788</v>
+      </c>
+      <c r="E38">
+        <v>0.05846514694077001</v>
+      </c>
+      <c r="F38">
+        <v>0.006525824964985064</v>
+      </c>
+      <c r="G38">
+        <v>0.01468627956404761</v>
+      </c>
+      <c r="H38">
+        <v>-0.03005499748389308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08787087006114465</v>
+        <v>0.09974865620369804</v>
       </c>
       <c r="C39">
-        <v>-0.08136927512093513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05433177033724</v>
+      </c>
+      <c r="D39">
+        <v>-0.07161414530339733</v>
+      </c>
+      <c r="E39">
+        <v>-0.01396931827736582</v>
+      </c>
+      <c r="F39">
+        <v>-0.01289940376167471</v>
+      </c>
+      <c r="G39">
+        <v>0.02137682920226732</v>
+      </c>
+      <c r="H39">
+        <v>-0.04925431045126796</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06797725755859663</v>
+        <v>0.07029957508824887</v>
       </c>
       <c r="C40">
-        <v>-0.05315318792235534</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03120508404723254</v>
+      </c>
+      <c r="D40">
+        <v>-0.0081220300259913</v>
+      </c>
+      <c r="E40">
+        <v>0.02087843650066664</v>
+      </c>
+      <c r="F40">
+        <v>0.05080826934850764</v>
+      </c>
+      <c r="G40">
+        <v>0.0679947919767085</v>
+      </c>
+      <c r="H40">
+        <v>0.08778627153411217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03970042840025587</v>
+        <v>0.04262456966467486</v>
       </c>
       <c r="C41">
-        <v>-0.01150620786190085</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.003004526614744685</v>
+      </c>
+      <c r="D41">
+        <v>-0.0384745437045283</v>
+      </c>
+      <c r="E41">
+        <v>0.006173999826181179</v>
+      </c>
+      <c r="F41">
+        <v>0.01100791676235542</v>
+      </c>
+      <c r="G41">
+        <v>0.01189249243301902</v>
+      </c>
+      <c r="H41">
+        <v>-0.04086471144711978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0442153930325343</v>
+        <v>0.05232794512781942</v>
       </c>
       <c r="C43">
-        <v>-0.02899906717243267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01825480258468835</v>
+      </c>
+      <c r="D43">
+        <v>-0.02501319017558089</v>
+      </c>
+      <c r="E43">
+        <v>0.01720371874662184</v>
+      </c>
+      <c r="F43">
+        <v>-0.0102696947761831</v>
+      </c>
+      <c r="G43">
+        <v>-0.005115106460282222</v>
+      </c>
+      <c r="H43">
+        <v>-0.05276628088492167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08985375070148187</v>
+        <v>0.09060857856471545</v>
       </c>
       <c r="C44">
-        <v>-0.09913516300819812</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06584467327972102</v>
+      </c>
+      <c r="D44">
+        <v>-0.05925125239314114</v>
+      </c>
+      <c r="E44">
+        <v>0.09752141143970353</v>
+      </c>
+      <c r="F44">
+        <v>-0.05019160520086943</v>
+      </c>
+      <c r="G44">
+        <v>0.03249718294458957</v>
+      </c>
+      <c r="H44">
+        <v>0.001530483984092366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02548724515291257</v>
+        <v>0.02918705207430206</v>
       </c>
       <c r="C46">
-        <v>-0.01487350778994658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.008608808110804632</v>
+      </c>
+      <c r="D46">
+        <v>-0.03088756235384747</v>
+      </c>
+      <c r="E46">
+        <v>0.02039559378825037</v>
+      </c>
+      <c r="F46">
+        <v>-0.01970581383258164</v>
+      </c>
+      <c r="G46">
+        <v>0.001107962192723431</v>
+      </c>
+      <c r="H46">
+        <v>-0.03803315882630483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0264569713635867</v>
+        <v>0.03038572760932839</v>
       </c>
       <c r="C47">
-        <v>-0.02103798035961787</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01382954676939105</v>
+      </c>
+      <c r="D47">
+        <v>-0.01341317911453534</v>
+      </c>
+      <c r="E47">
+        <v>0.0492383250574722</v>
+      </c>
+      <c r="F47">
+        <v>-0.01384536898243711</v>
+      </c>
+      <c r="G47">
+        <v>-0.03465396280454533</v>
+      </c>
+      <c r="H47">
+        <v>-0.03535088484094024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02854130937365577</v>
+        <v>0.03425717247212156</v>
       </c>
       <c r="C48">
-        <v>-0.02009482846175524</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01237215424896945</v>
+      </c>
+      <c r="D48">
+        <v>-0.03197773834026375</v>
+      </c>
+      <c r="E48">
+        <v>0.04036158618844257</v>
+      </c>
+      <c r="F48">
+        <v>-0.007450265017828965</v>
+      </c>
+      <c r="G48">
+        <v>0.0061268801467844</v>
+      </c>
+      <c r="H48">
+        <v>-0.05788591479952507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1536362369248791</v>
+        <v>0.184059695851938</v>
       </c>
       <c r="C49">
-        <v>-0.08806252566724979</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0549797775535437</v>
+      </c>
+      <c r="D49">
+        <v>-0.0195432382477072</v>
+      </c>
+      <c r="E49">
+        <v>-0.1263512214966878</v>
+      </c>
+      <c r="F49">
+        <v>-0.04070558176391019</v>
+      </c>
+      <c r="G49">
+        <v>-0.04267462342282226</v>
+      </c>
+      <c r="H49">
+        <v>0.2594987266453154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03497818908992183</v>
+        <v>0.04385408501027157</v>
       </c>
       <c r="C50">
-        <v>-0.02614537577371148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01969964268473589</v>
+      </c>
+      <c r="D50">
+        <v>-0.03498833219766319</v>
+      </c>
+      <c r="E50">
+        <v>0.04852685887961534</v>
+      </c>
+      <c r="F50">
+        <v>-0.02117965891202482</v>
+      </c>
+      <c r="G50">
+        <v>-0.01551914248998672</v>
+      </c>
+      <c r="H50">
+        <v>-0.07650303035121324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02487998968796256</v>
+        <v>0.02637981463394779</v>
       </c>
       <c r="C51">
-        <v>-0.01368844576237969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.008494135533575852</v>
+      </c>
+      <c r="D51">
+        <v>-0.02199622116894701</v>
+      </c>
+      <c r="E51">
+        <v>0.01565673911402303</v>
+      </c>
+      <c r="F51">
+        <v>-0.01102485556236897</v>
+      </c>
+      <c r="G51">
+        <v>0.003811591562471925</v>
+      </c>
+      <c r="H51">
+        <v>-0.009301057745509886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1411061823749855</v>
+        <v>0.1588148754776295</v>
       </c>
       <c r="C53">
-        <v>-0.09076033715443423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06006560914753992</v>
+      </c>
+      <c r="D53">
+        <v>-0.02116092168844583</v>
+      </c>
+      <c r="E53">
+        <v>-0.03822300000890879</v>
+      </c>
+      <c r="F53">
+        <v>-0.01435034896169734</v>
+      </c>
+      <c r="G53">
+        <v>-0.003508490502279861</v>
+      </c>
+      <c r="H53">
+        <v>-0.155085324565856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05306226075504669</v>
+        <v>0.05698615300624753</v>
       </c>
       <c r="C54">
-        <v>-0.02613274979891172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01247167702536317</v>
+      </c>
+      <c r="D54">
+        <v>-0.02820095045881102</v>
+      </c>
+      <c r="E54">
+        <v>0.04770961153538401</v>
+      </c>
+      <c r="F54">
+        <v>-0.01373196271578345</v>
+      </c>
+      <c r="G54">
+        <v>0.006184568525521583</v>
+      </c>
+      <c r="H54">
+        <v>-0.05837498024029085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09311921956319369</v>
+        <v>0.09999819083915118</v>
       </c>
       <c r="C55">
-        <v>-0.06205092846432218</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.0397731451274146</v>
+      </c>
+      <c r="D55">
+        <v>-0.0259029890110534</v>
+      </c>
+      <c r="E55">
+        <v>0.009566790032531436</v>
+      </c>
+      <c r="F55">
+        <v>-0.01534421986774324</v>
+      </c>
+      <c r="G55">
+        <v>0.00470026399711604</v>
+      </c>
+      <c r="H55">
+        <v>-0.145904286589614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1406222016872306</v>
+        <v>0.1599663701352628</v>
       </c>
       <c r="C56">
-        <v>-0.1031210446019277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.0698457572070157</v>
+      </c>
+      <c r="D56">
+        <v>-0.01852885177807561</v>
+      </c>
+      <c r="E56">
+        <v>-0.03831813127488776</v>
+      </c>
+      <c r="F56">
+        <v>-0.03578761616874666</v>
+      </c>
+      <c r="G56">
+        <v>-0.01349682496411886</v>
+      </c>
+      <c r="H56">
+        <v>-0.1609913660563708</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1189374196453905</v>
+        <v>0.1005465847867589</v>
       </c>
       <c r="C58">
-        <v>-0.02123313355694226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.02026662393470355</v>
+      </c>
+      <c r="D58">
+        <v>-0.05541818112334167</v>
+      </c>
+      <c r="E58">
+        <v>0.1846024892354201</v>
+      </c>
+      <c r="F58">
+        <v>-0.01794528457106489</v>
+      </c>
+      <c r="G58">
+        <v>-0.04599694622973453</v>
+      </c>
+      <c r="H58">
+        <v>0.1785033335737509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1173616623510692</v>
+        <v>0.1473372257332979</v>
       </c>
       <c r="C59">
-        <v>-0.08183291479375433</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07501648683902189</v>
+      </c>
+      <c r="D59">
+        <v>0.3609552772244259</v>
+      </c>
+      <c r="E59">
+        <v>0.04909965427164502</v>
+      </c>
+      <c r="F59">
+        <v>-0.001835418280116708</v>
+      </c>
+      <c r="G59">
+        <v>-0.03902896036033439</v>
+      </c>
+      <c r="H59">
+        <v>0.003517017588881698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1908787988918248</v>
+        <v>0.2242899442740639</v>
       </c>
       <c r="C60">
-        <v>-0.1146184200435988</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07538042758984065</v>
+      </c>
+      <c r="D60">
+        <v>-0.02888282322951096</v>
+      </c>
+      <c r="E60">
+        <v>-0.07186913163466313</v>
+      </c>
+      <c r="F60">
+        <v>-0.05202070345707743</v>
+      </c>
+      <c r="G60">
+        <v>0.02533507991577492</v>
+      </c>
+      <c r="H60">
+        <v>0.1664067177349555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07525465347298214</v>
+        <v>0.08490020722433145</v>
       </c>
       <c r="C61">
-        <v>-0.06179440052102657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04125331191009138</v>
+      </c>
+      <c r="D61">
+        <v>-0.05475560494137104</v>
+      </c>
+      <c r="E61">
+        <v>-0.01677660403822124</v>
+      </c>
+      <c r="F61">
+        <v>-0.008619161758229658</v>
+      </c>
+      <c r="G61">
+        <v>-0.01361957815417299</v>
+      </c>
+      <c r="H61">
+        <v>-0.06590976040281453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1225147017767511</v>
+        <v>0.1404434120410547</v>
       </c>
       <c r="C62">
-        <v>-0.078860461438522</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05218239877407768</v>
+      </c>
+      <c r="D62">
+        <v>-0.02440300960517989</v>
+      </c>
+      <c r="E62">
+        <v>-0.0547520618482897</v>
+      </c>
+      <c r="F62">
+        <v>-0.01054583036491858</v>
+      </c>
+      <c r="G62">
+        <v>0.02952284903958982</v>
+      </c>
+      <c r="H62">
+        <v>-0.156196175307392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05127793198083874</v>
+        <v>0.05106688652826345</v>
       </c>
       <c r="C63">
-        <v>-0.03061762307576907</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01579087709836452</v>
+      </c>
+      <c r="D63">
+        <v>-0.02763436713978526</v>
+      </c>
+      <c r="E63">
+        <v>0.04909781557657732</v>
+      </c>
+      <c r="F63">
+        <v>-0.005832523361982333</v>
+      </c>
+      <c r="G63">
+        <v>0.03518829577204591</v>
+      </c>
+      <c r="H63">
+        <v>-0.08379694854585781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1044438737767734</v>
+        <v>0.1111375455090229</v>
       </c>
       <c r="C64">
-        <v>-0.04155546467680424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01500779630075506</v>
+      </c>
+      <c r="D64">
+        <v>-0.05213358232410542</v>
+      </c>
+      <c r="E64">
+        <v>0.02457418375353173</v>
+      </c>
+      <c r="F64">
+        <v>-0.05153819421820367</v>
+      </c>
+      <c r="G64">
+        <v>0.02801074377966365</v>
+      </c>
+      <c r="H64">
+        <v>-0.06791171232531876</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1132297959073396</v>
+        <v>0.125312077895477</v>
       </c>
       <c r="C65">
-        <v>-0.06506076651978682</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03984988995979129</v>
+      </c>
+      <c r="D65">
+        <v>-0.005050550257311868</v>
+      </c>
+      <c r="E65">
+        <v>0.002876714563720832</v>
+      </c>
+      <c r="F65">
+        <v>-0.06659113331411895</v>
+      </c>
+      <c r="G65">
+        <v>0.0371776727568672</v>
+      </c>
+      <c r="H65">
+        <v>0.08984269971681534</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1356428319873936</v>
+        <v>0.1521521932460737</v>
       </c>
       <c r="C66">
-        <v>-0.08955770741919497</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05393432864461359</v>
+      </c>
+      <c r="D66">
+        <v>-0.1124636641795437</v>
+      </c>
+      <c r="E66">
+        <v>-0.05227163716282341</v>
+      </c>
+      <c r="F66">
+        <v>-0.02661119873063391</v>
+      </c>
+      <c r="G66">
+        <v>0.0212487701787885</v>
+      </c>
+      <c r="H66">
+        <v>-0.116877172049084</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06961447272249653</v>
+        <v>0.07736304880381667</v>
       </c>
       <c r="C67">
-        <v>-0.02024040646669642</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.007006890976135316</v>
+      </c>
+      <c r="D67">
+        <v>-0.03114794622636968</v>
+      </c>
+      <c r="E67">
+        <v>0.02709138545427328</v>
+      </c>
+      <c r="F67">
+        <v>-0.01444196498543061</v>
+      </c>
+      <c r="G67">
+        <v>-0.005875240648099488</v>
+      </c>
+      <c r="H67">
+        <v>-0.02581082591909012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06010851411690122</v>
+        <v>0.06806190925265491</v>
       </c>
       <c r="C68">
-        <v>-0.04657465942741006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04290299276221696</v>
+      </c>
+      <c r="D68">
+        <v>0.2634384085751033</v>
+      </c>
+      <c r="E68">
+        <v>0.04969594409700501</v>
+      </c>
+      <c r="F68">
+        <v>-0.01212106555890418</v>
+      </c>
+      <c r="G68">
+        <v>-0.01223331675566658</v>
+      </c>
+      <c r="H68">
+        <v>-0.02324743302813461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04856147497722865</v>
+        <v>0.04767063399005751</v>
       </c>
       <c r="C69">
-        <v>-0.02213123347546669</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.007199023963652959</v>
+      </c>
+      <c r="D69">
+        <v>-0.02129979840928812</v>
+      </c>
+      <c r="E69">
+        <v>0.02435070428378915</v>
+      </c>
+      <c r="F69">
+        <v>0.00396141814950963</v>
+      </c>
+      <c r="G69">
+        <v>-0.009761276276937077</v>
+      </c>
+      <c r="H69">
+        <v>-0.06386173060803708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005077758856911418</v>
+        <v>0.02120670216495526</v>
       </c>
       <c r="C70">
-        <v>0.003296951775470324</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0002680117870958972</v>
+      </c>
+      <c r="D70">
+        <v>-0.000597576023949765</v>
+      </c>
+      <c r="E70">
+        <v>-0.02693204354451566</v>
+      </c>
+      <c r="F70">
+        <v>-0.01844503703272922</v>
+      </c>
+      <c r="G70">
+        <v>-0.0177729298440833</v>
+      </c>
+      <c r="H70">
+        <v>0.05708827660082568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06343767532754448</v>
+        <v>0.07280246425592299</v>
       </c>
       <c r="C71">
-        <v>-0.04408360034520081</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04122835620822789</v>
+      </c>
+      <c r="D71">
+        <v>0.2933843575853946</v>
+      </c>
+      <c r="E71">
+        <v>0.04719830221024719</v>
+      </c>
+      <c r="F71">
+        <v>-0.04032580373620118</v>
+      </c>
+      <c r="G71">
+        <v>-0.008030357867452239</v>
+      </c>
+      <c r="H71">
+        <v>-0.01480989096667964</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1356634812175873</v>
+        <v>0.1551076729008194</v>
       </c>
       <c r="C72">
-        <v>-0.06931647334523626</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04115410554163842</v>
+      </c>
+      <c r="D72">
+        <v>0.000327286344924243</v>
+      </c>
+      <c r="E72">
+        <v>-0.09267224027591146</v>
+      </c>
+      <c r="F72">
+        <v>0.1603795174176682</v>
+      </c>
+      <c r="G72">
+        <v>0.1124561556663653</v>
+      </c>
+      <c r="H72">
+        <v>-0.01435775394797947</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2495334930106617</v>
+        <v>0.2788726745690183</v>
       </c>
       <c r="C73">
-        <v>-0.1419066360835512</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07890950696802855</v>
+      </c>
+      <c r="D73">
+        <v>-0.08812136339633986</v>
+      </c>
+      <c r="E73">
+        <v>-0.1829297849580929</v>
+      </c>
+      <c r="F73">
+        <v>-0.08505613730224426</v>
+      </c>
+      <c r="G73">
+        <v>-0.1822623141127981</v>
+      </c>
+      <c r="H73">
+        <v>0.5492183753288794</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07381876026832425</v>
+        <v>0.08855384207242172</v>
       </c>
       <c r="C74">
-        <v>-0.08295503179355046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06243301333246464</v>
+      </c>
+      <c r="D74">
+        <v>-0.0268460362769518</v>
+      </c>
+      <c r="E74">
+        <v>-0.00549591554735878</v>
+      </c>
+      <c r="F74">
+        <v>0.01195402778780524</v>
+      </c>
+      <c r="G74">
+        <v>-0.03635399853797643</v>
+      </c>
+      <c r="H74">
+        <v>-0.1289040846988215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09397637932845702</v>
+        <v>0.1038237161633834</v>
       </c>
       <c r="C75">
-        <v>-0.05947975018681934</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03165968807326068</v>
+      </c>
+      <c r="D75">
+        <v>-0.006572918492253329</v>
+      </c>
+      <c r="E75">
+        <v>0.0008326375932088902</v>
+      </c>
+      <c r="F75">
+        <v>-0.04610771297710863</v>
+      </c>
+      <c r="G75">
+        <v>-0.01572071676286605</v>
+      </c>
+      <c r="H75">
+        <v>-0.1237369525814463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1185246623290827</v>
+        <v>0.1337078322526301</v>
       </c>
       <c r="C76">
-        <v>-0.09739172389466171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06676218710664399</v>
+      </c>
+      <c r="D76">
+        <v>-0.05129361613141457</v>
+      </c>
+      <c r="E76">
+        <v>0.01183855362389304</v>
+      </c>
+      <c r="F76">
+        <v>-0.0566179014403117</v>
+      </c>
+      <c r="G76">
+        <v>-0.006613138885250038</v>
+      </c>
+      <c r="H76">
+        <v>-0.162312205844433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1177100196750094</v>
+        <v>0.1141757808230069</v>
       </c>
       <c r="C77">
-        <v>-0.04865951013445047</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01291664868095288</v>
+      </c>
+      <c r="D77">
+        <v>-0.02395011141049697</v>
+      </c>
+      <c r="E77">
+        <v>-0.02018144070209096</v>
+      </c>
+      <c r="F77">
+        <v>-0.2192179397432791</v>
+      </c>
+      <c r="G77">
+        <v>0.8866152332288065</v>
+      </c>
+      <c r="H77">
+        <v>0.1439775593158023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08916006399055348</v>
+        <v>0.1182523374076957</v>
       </c>
       <c r="C78">
-        <v>-0.04828694685077987</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03452031989750033</v>
+      </c>
+      <c r="D78">
+        <v>-0.09322806598330306</v>
+      </c>
+      <c r="E78">
+        <v>0.06019591535655522</v>
+      </c>
+      <c r="F78">
+        <v>-0.01684912044658027</v>
+      </c>
+      <c r="G78">
+        <v>0.03820833202239774</v>
+      </c>
+      <c r="H78">
+        <v>0.1019472393420842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1394100057286938</v>
+        <v>0.1514554395451223</v>
       </c>
       <c r="C79">
-        <v>-0.09889896520263461</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.05917548774699947</v>
+      </c>
+      <c r="D79">
+        <v>-0.02887116794467242</v>
+      </c>
+      <c r="E79">
+        <v>-0.02401770329331798</v>
+      </c>
+      <c r="F79">
+        <v>-0.01531921079084384</v>
+      </c>
+      <c r="G79">
+        <v>-0.02074697366846402</v>
+      </c>
+      <c r="H79">
+        <v>-0.1567585294734118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03937918148273643</v>
+        <v>0.04022897125234027</v>
       </c>
       <c r="C80">
-        <v>-0.01804312982935175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007460980202290903</v>
+      </c>
+      <c r="D80">
+        <v>-0.02873504321086186</v>
+      </c>
+      <c r="E80">
+        <v>-0.00321024186218264</v>
+      </c>
+      <c r="F80">
+        <v>0.01763169839198878</v>
+      </c>
+      <c r="G80">
+        <v>-0.04164763013222669</v>
+      </c>
+      <c r="H80">
+        <v>-0.04434588406679031</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1124440292693085</v>
+        <v>0.1190719468630114</v>
       </c>
       <c r="C81">
-        <v>-0.07005305091287602</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03805629443975862</v>
+      </c>
+      <c r="D81">
+        <v>-0.03075732381112619</v>
+      </c>
+      <c r="E81">
+        <v>-0.002051057557592186</v>
+      </c>
+      <c r="F81">
+        <v>-0.02225104250035315</v>
+      </c>
+      <c r="G81">
+        <v>-0.05515143773426172</v>
+      </c>
+      <c r="H81">
+        <v>-0.1805704733578327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.120126958213954</v>
+        <v>0.1278442262152834</v>
       </c>
       <c r="C82">
-        <v>-0.08534690927031567</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05313721798828518</v>
+      </c>
+      <c r="D82">
+        <v>-0.03194366759423041</v>
+      </c>
+      <c r="E82">
+        <v>-0.01823366808359046</v>
+      </c>
+      <c r="F82">
+        <v>-0.05471716169973794</v>
+      </c>
+      <c r="G82">
+        <v>-0.05324585413965376</v>
+      </c>
+      <c r="H82">
+        <v>-0.171923498378636</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0721133772264501</v>
+        <v>0.07810947245568667</v>
       </c>
       <c r="C83">
-        <v>-0.01079843706025794</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.007320198728944323</v>
+      </c>
+      <c r="D83">
+        <v>-0.05125387327928212</v>
+      </c>
+      <c r="E83">
+        <v>0.01531269481508669</v>
+      </c>
+      <c r="F83">
+        <v>-0.03939169934580559</v>
+      </c>
+      <c r="G83">
+        <v>-0.1017330527161247</v>
+      </c>
+      <c r="H83">
+        <v>0.05535296324763302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02558833052767133</v>
+        <v>0.03736891996338123</v>
       </c>
       <c r="C84">
-        <v>-0.02523086249194611</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02187430534504188</v>
+      </c>
+      <c r="D84">
+        <v>-0.03620618175149866</v>
+      </c>
+      <c r="E84">
+        <v>0.02180441090804466</v>
+      </c>
+      <c r="F84">
+        <v>0.05094148005187021</v>
+      </c>
+      <c r="G84">
+        <v>-0.06149404569739741</v>
+      </c>
+      <c r="H84">
+        <v>-0.01884238157020797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1153287098841459</v>
+        <v>0.1181498518003511</v>
       </c>
       <c r="C85">
-        <v>-0.06646410311769589</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03256602981656471</v>
+      </c>
+      <c r="D85">
+        <v>-0.0267209290875656</v>
+      </c>
+      <c r="E85">
+        <v>0.00445686303870119</v>
+      </c>
+      <c r="F85">
+        <v>-0.05797943474110833</v>
+      </c>
+      <c r="G85">
+        <v>-0.01770506002551237</v>
+      </c>
+      <c r="H85">
+        <v>-0.1501104136563377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04710931084811122</v>
+        <v>0.05050351566263427</v>
       </c>
       <c r="C86">
-        <v>-0.02480445551365108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01214902867441124</v>
+      </c>
+      <c r="D86">
+        <v>-0.02256858950690772</v>
+      </c>
+      <c r="E86">
+        <v>0.06019741935253402</v>
+      </c>
+      <c r="F86">
+        <v>-0.02047099237756303</v>
+      </c>
+      <c r="G86">
+        <v>-0.002852351652010369</v>
+      </c>
+      <c r="H86">
+        <v>-0.01916092850339629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1193227389394663</v>
+        <v>0.1211671489078311</v>
       </c>
       <c r="C87">
-        <v>-0.07764920001874459</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03862445200722695</v>
+      </c>
+      <c r="D87">
+        <v>-0.07129008426627675</v>
+      </c>
+      <c r="E87">
+        <v>0.01553731410625401</v>
+      </c>
+      <c r="F87">
+        <v>-0.0153686411652217</v>
+      </c>
+      <c r="G87">
+        <v>0.09924671639433821</v>
+      </c>
+      <c r="H87">
+        <v>0.000596995274517482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05295067366865566</v>
+        <v>0.05779476246498227</v>
       </c>
       <c r="C88">
-        <v>-0.0319586215583206</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01852874748838077</v>
+      </c>
+      <c r="D88">
+        <v>-0.02572565380949454</v>
+      </c>
+      <c r="E88">
+        <v>0.01720083714208585</v>
+      </c>
+      <c r="F88">
+        <v>-0.00703226353415872</v>
+      </c>
+      <c r="G88">
+        <v>0.008128538321971357</v>
+      </c>
+      <c r="H88">
+        <v>-0.06522547304957496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08649716654695444</v>
+        <v>0.1067251592653394</v>
       </c>
       <c r="C89">
-        <v>-0.06919964564473698</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.0662044485039783</v>
+      </c>
+      <c r="D89">
+        <v>0.3304154311414153</v>
+      </c>
+      <c r="E89">
+        <v>0.07926496295682109</v>
+      </c>
+      <c r="F89">
+        <v>-0.07235236600870885</v>
+      </c>
+      <c r="G89">
+        <v>-0.02377321326644647</v>
+      </c>
+      <c r="H89">
+        <v>0.006336718613602811</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0756866919137314</v>
+        <v>0.08933351624630834</v>
       </c>
       <c r="C90">
-        <v>-0.05463577770317035</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05075895448151371</v>
+      </c>
+      <c r="D90">
+        <v>0.3042258563805789</v>
+      </c>
+      <c r="E90">
+        <v>0.06435066811059174</v>
+      </c>
+      <c r="F90">
+        <v>-0.0008350557714895032</v>
+      </c>
+      <c r="G90">
+        <v>-0.004267470579778959</v>
+      </c>
+      <c r="H90">
+        <v>-0.02153306439705308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07973161721359655</v>
+        <v>0.08713071624714372</v>
       </c>
       <c r="C91">
-        <v>-0.06278801371880376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03924845721631427</v>
+      </c>
+      <c r="D91">
+        <v>-0.02526129739425503</v>
+      </c>
+      <c r="E91">
+        <v>0.01510721171018267</v>
+      </c>
+      <c r="F91">
+        <v>-0.003880856384804392</v>
+      </c>
+      <c r="G91">
+        <v>-0.04585916394088496</v>
+      </c>
+      <c r="H91">
+        <v>-0.08197235006825812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08685934238299328</v>
+        <v>0.1001214758737215</v>
       </c>
       <c r="C92">
-        <v>-0.06939405160209723</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06171761908180131</v>
+      </c>
+      <c r="D92">
+        <v>0.3452649089516579</v>
+      </c>
+      <c r="E92">
+        <v>0.05517931205567235</v>
+      </c>
+      <c r="F92">
+        <v>-0.03554849488658082</v>
+      </c>
+      <c r="G92">
+        <v>0.001945133842735171</v>
+      </c>
+      <c r="H92">
+        <v>-0.01825366680932319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06871803292437875</v>
+        <v>0.08652964045167601</v>
       </c>
       <c r="C93">
-        <v>-0.06033261088004399</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.0597860199048855</v>
+      </c>
+      <c r="D93">
+        <v>0.30266232612897</v>
+      </c>
+      <c r="E93">
+        <v>0.03851024448368464</v>
+      </c>
+      <c r="F93">
+        <v>-0.04521898414212656</v>
+      </c>
+      <c r="G93">
+        <v>0.004808126880930177</v>
+      </c>
+      <c r="H93">
+        <v>0.008078635698934253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1250579965740689</v>
+        <v>0.1277827729699682</v>
       </c>
       <c r="C94">
-        <v>-0.0730354061546668</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03413155327692998</v>
+      </c>
+      <c r="D94">
+        <v>-0.05064088076939965</v>
+      </c>
+      <c r="E94">
+        <v>-0.02102542989292715</v>
+      </c>
+      <c r="F94">
+        <v>-0.02464685429872038</v>
+      </c>
+      <c r="G94">
+        <v>-0.04423975204613855</v>
+      </c>
+      <c r="H94">
+        <v>-0.09464690666030462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1131551573046854</v>
+        <v>0.1222564264744583</v>
       </c>
       <c r="C95">
-        <v>-0.05220377721896368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02105127492079604</v>
+      </c>
+      <c r="D95">
+        <v>-0.0647244687105354</v>
+      </c>
+      <c r="E95">
+        <v>-0.01076828227396822</v>
+      </c>
+      <c r="F95">
+        <v>-0.02681287527262509</v>
+      </c>
+      <c r="G95">
+        <v>-0.01518178099510406</v>
+      </c>
+      <c r="H95">
+        <v>0.003330823769949157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2016356601990962</v>
+        <v>0.2174372486236504</v>
       </c>
       <c r="C97">
-        <v>-0.06368243481055967</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.02041921655190669</v>
+      </c>
+      <c r="D97">
+        <v>0.05752937925060427</v>
+      </c>
+      <c r="E97">
+        <v>-0.1793075683602375</v>
+      </c>
+      <c r="F97">
+        <v>0.8953927456033027</v>
+      </c>
+      <c r="G97">
+        <v>0.1593784725414254</v>
+      </c>
+      <c r="H97">
+        <v>0.001889961210254551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2413640209729224</v>
+        <v>0.267606397145703</v>
       </c>
       <c r="C98">
-        <v>-0.1045079448074793</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.0483779902965686</v>
+      </c>
+      <c r="D98">
+        <v>-0.05687503837651123</v>
+      </c>
+      <c r="E98">
+        <v>-0.158557142582145</v>
+      </c>
+      <c r="F98">
+        <v>-0.05027598076719056</v>
+      </c>
+      <c r="G98">
+        <v>-0.268573317178719</v>
+      </c>
+      <c r="H98">
+        <v>0.2155133616718387</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.5253670608364043</v>
+        <v>0.3223877462740987</v>
       </c>
       <c r="C99">
-        <v>0.8398202063555797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9344425454811722</v>
+      </c>
+      <c r="D99">
+        <v>0.06287383214920574</v>
+      </c>
+      <c r="E99">
+        <v>0.04316265181334422</v>
+      </c>
+      <c r="F99">
+        <v>-0.04303558898049859</v>
+      </c>
+      <c r="G99">
+        <v>-0.01438739462416746</v>
+      </c>
+      <c r="H99">
+        <v>-0.04466458705315039</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03855151695480039</v>
+        <v>0.0463388155017518</v>
       </c>
       <c r="C101">
-        <v>-0.03096002841685969</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02320658904875495</v>
+      </c>
+      <c r="D101">
+        <v>-0.0109398114838612</v>
+      </c>
+      <c r="E101">
+        <v>0.04188654539976534</v>
+      </c>
+      <c r="F101">
+        <v>-0.008266531638123133</v>
+      </c>
+      <c r="G101">
+        <v>-0.01102414471455765</v>
+      </c>
+      <c r="H101">
+        <v>-0.08846419345035685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
